--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cort-Sstr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cort-Sstr4.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.193117666666667</v>
+        <v>6.365199</v>
       </c>
       <c r="N2">
-        <v>12.579353</v>
+        <v>19.095597</v>
       </c>
       <c r="O2">
-        <v>0.7824010298867687</v>
+        <v>0.8551243431489016</v>
       </c>
       <c r="P2">
-        <v>0.7824010298867687</v>
+        <v>0.8551243431489015</v>
       </c>
       <c r="Q2">
-        <v>0.4613044423924444</v>
+        <v>0.700265246252</v>
       </c>
       <c r="R2">
-        <v>4.151739981532001</v>
+        <v>6.302387216268</v>
       </c>
       <c r="S2">
-        <v>0.7824010298867687</v>
+        <v>0.8551243431489016</v>
       </c>
       <c r="T2">
-        <v>0.7824010298867687</v>
+        <v>0.8551243431489015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>1.393234</v>
       </c>
       <c r="O3">
-        <v>0.08665530862145791</v>
+        <v>0.06239073379600107</v>
       </c>
       <c r="P3">
-        <v>0.0866553086214579</v>
+        <v>0.06239073379600107</v>
       </c>
       <c r="Q3">
         <v>0.05109205803288889</v>
@@ -635,10 +635,10 @@
         <v>0.459828522296</v>
       </c>
       <c r="S3">
-        <v>0.08665530862145791</v>
+        <v>0.06239073379600107</v>
       </c>
       <c r="T3">
-        <v>0.0866553086214579</v>
+        <v>0.06239073379600107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3155153333333333</v>
+        <v>0.4859933333333333</v>
       </c>
       <c r="N4">
-        <v>0.946546</v>
+        <v>1.45798</v>
       </c>
       <c r="O4">
-        <v>0.05887254815372471</v>
+        <v>0.06529013938785132</v>
       </c>
       <c r="P4">
-        <v>0.0588725481537247</v>
+        <v>0.06529013938785132</v>
       </c>
       <c r="Q4">
-        <v>0.03471131422488889</v>
+        <v>0.05346639456888889</v>
       </c>
       <c r="R4">
-        <v>0.312401828024</v>
+        <v>0.48119755112</v>
       </c>
       <c r="S4">
-        <v>0.05887254815372471</v>
+        <v>0.06529013938785132</v>
       </c>
       <c r="T4">
-        <v>0.0588725481537247</v>
+        <v>0.06529013938785132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3862503333333333</v>
+        <v>0.127991</v>
       </c>
       <c r="N5">
-        <v>1.158751</v>
+        <v>0.383973</v>
       </c>
       <c r="O5">
-        <v>0.07207111333804872</v>
+        <v>0.01719478366724608</v>
       </c>
       <c r="P5">
-        <v>0.07207111333804871</v>
+        <v>0.01719478366724608</v>
       </c>
       <c r="Q5">
-        <v>0.04249320167155555</v>
+        <v>0.01408088720133333</v>
       </c>
       <c r="R5">
-        <v>0.382438815044</v>
+        <v>0.126727984812</v>
       </c>
       <c r="S5">
-        <v>0.07207111333804872</v>
+        <v>0.01719478366724608</v>
       </c>
       <c r="T5">
-        <v>0.07207111333804871</v>
+        <v>0.01719478366724608</v>
       </c>
     </row>
   </sheetData>
